--- a/ResultadoEleicoesDistritos/ÉVORA_MORA.xlsx
+++ b/ResultadoEleicoesDistritos/ÉVORA_MORA.xlsx
@@ -597,61 +597,61 @@
         <v>1146</v>
       </c>
       <c r="H2" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I2" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J2" t="n">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N2" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="T2" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="U2" t="n">
         <v>3</v>
       </c>
       <c r="V2" t="n">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>718</v>
+        <v>755</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="n">
         <v>3</v>
